--- a/teaching/traditional_assets/database/data/austria/austria_drugs_pharmaceutical.xlsx
+++ b/teaching/traditional_assets/database/data/austria/austria_drugs_pharmaceutical.xlsx
@@ -591,22 +591,22 @@
         </is>
       </c>
       <c r="G2">
-        <v>0.05797101449275368</v>
+        <v>-0.05533980582524266</v>
       </c>
       <c r="H2">
-        <v>-0.7355072463768115</v>
+        <v>-0.6766990291262135</v>
       </c>
       <c r="I2">
-        <v>-1.11466226300834</v>
+        <v>-0.6019417475728155</v>
       </c>
       <c r="J2">
-        <v>-1.11466226300834</v>
+        <v>-0.6019417475728155</v>
       </c>
       <c r="K2">
-        <v>-15.7</v>
+        <v>-6.87</v>
       </c>
       <c r="L2">
-        <v>-2.844202898550725</v>
+        <v>-0.6669902912621359</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -630,73 +630,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>11.3</v>
+        <v>6.17</v>
       </c>
       <c r="V2">
-        <v>0.06852637962401456</v>
+        <v>0.02877798507462687</v>
       </c>
       <c r="W2">
-        <v>1.691810344827586</v>
+        <v>-0.5325581395348837</v>
       </c>
       <c r="X2">
-        <v>0.08647404281754373</v>
+        <v>0.05751814610818003</v>
       </c>
       <c r="Y2">
-        <v>1.605336302010043</v>
+        <v>-0.5900762856430638</v>
       </c>
       <c r="Z2">
-        <v>-7.716809412052701</v>
+        <v>4.583889630618603</v>
       </c>
       <c r="AA2">
-        <v>8.601636242442719</v>
+        <v>-2.75923453493547</v>
       </c>
       <c r="AB2">
-        <v>0.08618894590028835</v>
+        <v>0.05644456583505471</v>
       </c>
       <c r="AC2">
-        <v>8.515447296542431</v>
+        <v>-2.815679100770525</v>
       </c>
       <c r="AD2">
-        <v>0.647</v>
+        <v>5.84</v>
       </c>
       <c r="AE2">
-        <v>0.2046784590301724</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.8516784590301725</v>
+        <v>5.84</v>
       </c>
       <c r="AG2">
-        <v>-10.44832154096983</v>
+        <v>-0.3300000000000001</v>
       </c>
       <c r="AH2">
-        <v>0.005138279545330136</v>
+        <v>0.02651652742462768</v>
       </c>
       <c r="AI2">
-        <v>0.06193269145781325</v>
+        <v>0.4329132690882135</v>
       </c>
       <c r="AJ2">
-        <v>-0.06764783423018189</v>
+        <v>-0.001541551828841034</v>
       </c>
       <c r="AK2">
-        <v>-4.261701408064314</v>
+        <v>-0.04508196721311476</v>
       </c>
       <c r="AL2">
-        <v>1.18</v>
+        <v>0.345</v>
       </c>
       <c r="AM2">
-        <v>1.18</v>
+        <v>0.263</v>
       </c>
       <c r="AN2">
-        <v>-0.1088858970043756</v>
+        <v>-0.9684908789386401</v>
       </c>
       <c r="AO2">
-        <v>-5.305084745762712</v>
+        <v>-17.97101449275362</v>
       </c>
       <c r="AP2">
-        <v>1.758384641698053</v>
+        <v>0.05472636815920399</v>
       </c>
       <c r="AQ2">
-        <v>-5.305084745762712</v>
+        <v>-23.57414448669202</v>
       </c>
     </row>
     <row r="3">
@@ -716,22 +716,22 @@
         </is>
       </c>
       <c r="G3">
-        <v>0.05797101449275368</v>
+        <v>-0.05533980582524266</v>
       </c>
       <c r="H3">
-        <v>-0.7355072463768115</v>
+        <v>-0.6766990291262135</v>
       </c>
       <c r="I3">
-        <v>-1.11466226300834</v>
+        <v>-0.6019417475728155</v>
       </c>
       <c r="J3">
-        <v>-1.11466226300834</v>
+        <v>-0.6019417475728155</v>
       </c>
       <c r="K3">
-        <v>-15.7</v>
+        <v>-6.87</v>
       </c>
       <c r="L3">
-        <v>-2.844202898550725</v>
+        <v>-0.6669902912621359</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -755,73 +755,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>11.3</v>
+        <v>6.17</v>
       </c>
       <c r="V3">
-        <v>0.06852637962401456</v>
+        <v>0.02877798507462687</v>
       </c>
       <c r="W3">
-        <v>1.691810344827586</v>
+        <v>-0.5325581395348837</v>
       </c>
       <c r="X3">
-        <v>0.08647404281754373</v>
+        <v>0.05751814610818003</v>
       </c>
       <c r="Y3">
-        <v>1.605336302010043</v>
+        <v>-0.5900762856430638</v>
       </c>
       <c r="Z3">
-        <v>-7.716809412052701</v>
+        <v>4.583889630618603</v>
       </c>
       <c r="AA3">
-        <v>8.601636242442719</v>
+        <v>-2.75923453493547</v>
       </c>
       <c r="AB3">
-        <v>0.08618894590028835</v>
+        <v>0.05644456583505471</v>
       </c>
       <c r="AC3">
-        <v>8.515447296542431</v>
+        <v>-2.815679100770525</v>
       </c>
       <c r="AD3">
-        <v>0.647</v>
+        <v>5.84</v>
       </c>
       <c r="AE3">
-        <v>0.2046784590301724</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.8516784590301725</v>
+        <v>5.84</v>
       </c>
       <c r="AG3">
-        <v>-10.44832154096983</v>
+        <v>-0.3300000000000001</v>
       </c>
       <c r="AH3">
-        <v>0.005138279545330136</v>
+        <v>0.02651652742462768</v>
       </c>
       <c r="AI3">
-        <v>0.06193269145781325</v>
+        <v>0.4329132690882135</v>
       </c>
       <c r="AJ3">
-        <v>-0.06764783423018189</v>
+        <v>-0.001541551828841034</v>
       </c>
       <c r="AK3">
-        <v>-4.261701408064314</v>
+        <v>-0.04508196721311476</v>
       </c>
       <c r="AL3">
-        <v>1.18</v>
+        <v>0.345</v>
       </c>
       <c r="AM3">
-        <v>1.18</v>
+        <v>0.263</v>
       </c>
       <c r="AN3">
-        <v>-0.1088858970043756</v>
+        <v>-0.9684908789386401</v>
       </c>
       <c r="AO3">
-        <v>-5.305084745762712</v>
+        <v>-17.97101449275362</v>
       </c>
       <c r="AP3">
-        <v>1.758384641698053</v>
+        <v>0.05472636815920399</v>
       </c>
       <c r="AQ3">
-        <v>-5.305084745762712</v>
+        <v>-23.57414448669202</v>
       </c>
     </row>
   </sheetData>
